--- a/similarities/split_global/harmonic_similarity_timestamps_282.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_282.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G', 'E:min', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:43.926916')]</t>
+          <t>('0:00:07.960000', '0:00:15.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
+          <t>('0:00:26.115071', '0:00:38.793167')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=7.96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=26.115071</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>isophonics_271</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'C:7']]</t>
+          <t>['E', 'C#:min', 'F#:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'F', 'F:7']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:34.365555', '0:00:39.740975')]</t>
+          <t>('0:00:07.755487', '0:00:19.945963')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:32.220000', '0:00:36.790000')]</t>
+          <t>('0:00:10.460000', '0:00:20.240000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-33#t=34.365555']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=7.755487</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=32.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=10.46</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:22.600000', '0:00:25.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:58.780000', '0:01:01.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-206#t=22.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=58.78</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb'], ['F', 'Bb', 'F']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D'], ['A', 'D', 'A']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:29.470000', '0:00:32.220000'), ('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:04.871315', '0:01:12.777709'), ('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=29.47', 'https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=64.871315', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Eb:maj6', 'F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:09.180000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:18.960000', '0:00:24.660000')]</t>
+          <t>('0:00:43.880000', '0:00:48.020000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-22#t=6.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=18.96']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/E'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b3'], ['E:7', 'A:min', 'D:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:40.040000', '0:00:45.760000'), ('0:00:06.940000', '0:00:17.120000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:05.672040', '0:00:08.841564'), ('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=40.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=5.67204', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A/3', 'E/5', 'A/3']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:14.168000', '0:00:18.573000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:01.440000', '0:00:06.660000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:32.486000', '0:00:37.053000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:12.500000')]</t>
+          <t>('0:00:37.940000', '0:00:42.840000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=32.486']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=5.4']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:59.640000'), ('0:00:39.940000', '0:00:49.640000')]</t>
+          <t>('0:02:08.760000', '0:02:14.600000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:25.880000', '0:00:33.500000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:00:03.129454', '0:00:06.531178')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=46.9', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=39.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=25.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D']]</t>
+          <t>['D/5', 'A', 'D', 'A/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:13.125602', '0:01:18.292043')]</t>
+          <t>('0:00:12.743000', '0:00:17.058000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:30.420000', '0:00:37.040000')]</t>
+          <t>('0:02:13.780000', '0:02:15.340000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=73.125602']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=12.743</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=30.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=133.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:min', 'C', 'F']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:13.660000', '0:00:31.860000')]</t>
+          <t>('0:00:45.474603', '0:00:48.945986')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.220000', '0:00:07.080000')]</t>
+          <t>('0:01:20.956000', '0:01:25.176000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=13.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=45.474603</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=0.22']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:02:24.085784', '0:02:29.240614')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=144.085784</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D/5', 'E:9', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:maj', 'E:9/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:00:03.756394', '0:00:05.532721')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:30.980000')]</t>
+          <t>('0:01:14.120000', '0:01:18.800000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-220#t=3.756394</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=74.12</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:49.402280', '0:00:59.224321')]</t>
+          <t>('0:02:12.300000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:00:14.450219', '0:00:23.088042')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.380000', '0:00:24.380000')]</t>
+          <t>('0:00:24.250000', '0:00:28.150000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:00:43.610000', '0:00:45.410000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=11.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=24.25</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
